--- a/College Management Table.xlsx
+++ b/College Management Table.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Tops_18Dec_SE_Batch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A7C4D-F1C6-4B4C-8AFE-BD7A1097C761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="178">
   <si>
     <t>Student Data</t>
   </si>
@@ -297,18 +306,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>B.Sc</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> IT</t>
     </r>
@@ -316,18 +325,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>B.Sc</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> IT</t>
     </r>
@@ -574,111 +583,129 @@
   </si>
   <si>
     <t>24RBCOM104</t>
+  </si>
+  <si>
+    <t>primary key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm-dd-yy"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd\-yy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, sans-serif"/>
     </font>
   </fonts>
   <fills count="11">
@@ -686,7 +713,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -743,28 +770,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -774,14 +813,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -796,6 +839,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -804,142 +848,163 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1129,24 +1194,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
-    <col customWidth="1" min="9" max="9" width="21.0"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1169,7 +1239,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1192,7 +1262,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1215,7 +1285,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1238,12 +1308,14 @@
       <c r="T4" s="2"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1261,13 +1333,14 @@
       <c r="T5" s="2"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D6" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="41"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1285,232 +1358,232 @@
       <c r="T6" s="2"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="8" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
       <c r="T7" s="2"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="13" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="2"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="13" t="s">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="2"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="13" t="s">
+      <c r="P10" s="27"/>
+      <c r="Q10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="2"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
       <c r="T11" s="2"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1533,7 +1606,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1556,7 +1629,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1579,7 +1652,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1602,7 +1675,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1625,7 +1698,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1648,7 +1721,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1671,25 +1744,27 @@
       <c r="T18" s="2"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="28" t="s">
         <v>45</v>
       </c>
+      <c r="E19" s="29"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="38" t="s">
         <v>47</v>
       </c>
+      <c r="N19" s="29"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1698,220 +1773,222 @@
       <c r="T19" s="2"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="11" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="24" t="s">
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="24" t="s">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="24" t="s">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="17" t="s">
         <v>40</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="24" t="s">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="15" t="s">
         <v>18</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1934,7 +2011,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1957,7 +2034,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1980,7 +2057,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2003,13 +2080,14 @@
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="28" t="s">
         <v>83</v>
       </c>
+      <c r="E29" s="29"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2027,32 +2105,32 @@
       <c r="T29" s="2"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="27"/>
+      <c r="F30" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7" t="s">
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8" t="s">
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -2060,32 +2138,32 @@
       <c r="T30" s="2"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="27"/>
+      <c r="F31" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="10" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="13" t="s">
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -2093,32 +2171,32 @@
       <c r="T31" s="2"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="27"/>
+      <c r="F32" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="10" t="s">
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="28" t="s">
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -2126,32 +2204,32 @@
       <c r="T32" s="2"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="27"/>
+      <c r="F33" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="10" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="13" t="s">
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="6"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -2159,32 +2237,32 @@
       <c r="T33" s="2"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="10" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="29" t="s">
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -2192,7 +2270,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2215,7 +2293,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2238,7 +2316,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2261,19 +2339,20 @@
       <c r="T37" s="2"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="28" t="s">
         <v>101</v>
       </c>
+      <c r="E38" s="29"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="18" t="s">
         <v>102</v>
       </c>
       <c r="L38" s="2"/>
@@ -2287,39 +2366,39 @@
       <c r="T38" s="2"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="27"/>
+      <c r="F39" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="35" t="s">
+      <c r="L39" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="M39" s="34" t="s">
+      <c r="M39" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="34" t="s">
+      <c r="N39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="O39" s="34" t="s">
+      <c r="O39" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="34" t="s">
+      <c r="P39" s="20" t="s">
         <v>108</v>
       </c>
       <c r="Q39" s="2"/>
@@ -2328,40 +2407,40 @@
       <c r="T39" s="2"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="36">
-        <v>45598.0</v>
-      </c>
-      <c r="G40" s="13" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="22">
+        <v>45598</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="N40" s="12" t="s">
+      <c r="N40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O40" s="12" t="s">
+      <c r="O40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P40" s="37">
-        <v>0.5416666666666666</v>
+      <c r="P40" s="23">
+        <v>0.54166666666666663</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2369,40 +2448,40 @@
       <c r="T40" s="2"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="36">
-        <v>45599.0</v>
-      </c>
-      <c r="G41" s="13" t="s">
+      <c r="E41" s="27"/>
+      <c r="F41" s="22">
+        <v>45599</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="M41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O41" s="12" t="s">
+      <c r="O41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="P41" s="37">
-        <v>0.5833333333333334</v>
+      <c r="P41" s="23">
+        <v>0.58333333333333337</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -2410,39 +2489,39 @@
       <c r="T41" s="2"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="36">
-        <v>45600.0</v>
-      </c>
-      <c r="G42" s="13" t="s">
+      <c r="E42" s="27"/>
+      <c r="F42" s="22">
+        <v>45600</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="M42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N42" s="12" t="s">
+      <c r="N42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="12" t="s">
+      <c r="O42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="23">
         <v>0.625</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2451,40 +2530,40 @@
       <c r="T42" s="2"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="36">
-        <v>45601.0</v>
-      </c>
-      <c r="G43" s="13" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="22">
+        <v>45601</v>
+      </c>
+      <c r="G43" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="M43" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O43" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P43" s="37">
-        <v>0.6666666666666666</v>
+      <c r="P43" s="23">
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -2492,7 +2571,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2515,7 +2594,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2538,7 +2617,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2561,20 +2640,21 @@
       <c r="T46" s="2"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="28" t="s">
         <v>128</v>
       </c>
+      <c r="E47" s="29"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="18" t="s">
         <v>129</v>
       </c>
       <c r="M47" s="2"/>
@@ -2587,33 +2667,33 @@
       <c r="T47" s="2"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="32" t="s">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="32" t="s">
+      <c r="J48" s="19" t="s">
         <v>104</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="L48" s="20" t="s">
+      <c r="L48" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N48" s="20" t="s">
+      <c r="N48" s="12" t="s">
         <v>56</v>
       </c>
       <c r="O48" s="2"/>
@@ -2624,33 +2704,33 @@
       <c r="T48" s="2"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="10" t="s">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="4" t="s">
         <v>137</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="6" t="s">
         <v>139</v>
       </c>
       <c r="O49" s="2"/>
@@ -2661,33 +2741,33 @@
       <c r="T49" s="2"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="10" t="s">
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J50" s="36">
-        <v>45294.0</v>
+      <c r="J50" s="22">
+        <v>45294</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="M50" s="12" t="s">
+      <c r="M50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="12" t="s">
+      <c r="N50" s="6" t="s">
         <v>144</v>
       </c>
       <c r="O50" s="2"/>
@@ -2698,33 +2778,33 @@
       <c r="T50" s="2"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="10" t="s">
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J51" s="36">
-        <v>45325.0</v>
+      <c r="J51" s="22">
+        <v>45325</v>
       </c>
       <c r="K51" s="2"/>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M51" s="12" t="s">
+      <c r="M51" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="N51" s="6" t="s">
         <v>139</v>
       </c>
       <c r="O51" s="2"/>
@@ -2735,33 +2815,33 @@
       <c r="T51" s="2"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="10" t="s">
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J52" s="36">
-        <v>45354.0</v>
+      <c r="J52" s="22">
+        <v>45354</v>
       </c>
       <c r="K52" s="2"/>
-      <c r="L52" s="12" t="s">
+      <c r="L52" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M52" s="12" t="s">
+      <c r="M52" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N52" s="6" t="s">
         <v>139</v>
       </c>
       <c r="O52" s="2"/>
@@ -2772,7 +2852,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2795,7 +2875,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2818,7 +2898,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2841,13 +2921,14 @@
       <c r="T55" s="2"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="28" t="s">
         <v>153</v>
       </c>
+      <c r="E56" s="29"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2856,7 +2937,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="30" t="s">
+      <c r="N56" s="18" t="s">
         <v>154</v>
       </c>
       <c r="O56" s="2"/>
@@ -2867,222 +2948,222 @@
       <c r="T56" s="2"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7" t="s">
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="27"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="20" t="s">
+      <c r="N57" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="O57" s="20" t="s">
+      <c r="O57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P57" s="20" t="s">
+      <c r="P57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="Q57" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R57" s="20" t="s">
+      <c r="R57" s="12" t="s">
         <v>159</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="13" t="s">
+      <c r="E58" s="27"/>
+      <c r="F58" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="10" t="s">
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="L58" s="6"/>
+      <c r="L58" s="27"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="12" t="s">
+      <c r="N58" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="O58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P58" s="12" t="s">
+      <c r="P58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="Q58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="12" t="s">
+      <c r="R58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="13" t="s">
+      <c r="E59" s="27"/>
+      <c r="F59" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="10" t="s">
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J59" s="36">
-        <v>45294.0</v>
-      </c>
-      <c r="K59" s="13" t="s">
+      <c r="J59" s="22">
+        <v>45294</v>
+      </c>
+      <c r="K59" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="27"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="12" t="s">
+      <c r="N59" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="O59" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P59" s="12" t="s">
+      <c r="P59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q59" s="12" t="s">
+      <c r="Q59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="12" t="s">
+      <c r="R59" s="6" t="s">
         <v>28</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="13" t="s">
+      <c r="E60" s="27"/>
+      <c r="F60" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="10" t="s">
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J60" s="36">
-        <v>45325.0</v>
-      </c>
-      <c r="K60" s="13" t="s">
+      <c r="J60" s="22">
+        <v>45325</v>
+      </c>
+      <c r="K60" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="27"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="12" t="s">
+      <c r="N60" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="O60" s="12" t="s">
+      <c r="O60" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P60" s="12" t="s">
+      <c r="P60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q60" s="12" t="s">
+      <c r="Q60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R60" s="12" t="s">
+      <c r="R60" s="6" t="s">
         <v>36</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="13" t="s">
+      <c r="E61" s="27"/>
+      <c r="F61" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="10" t="s">
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J61" s="36">
-        <v>45354.0</v>
-      </c>
-      <c r="K61" s="13" t="s">
+      <c r="J61" s="22">
+        <v>45354</v>
+      </c>
+      <c r="K61" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="27"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="12" t="s">
+      <c r="N61" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O61" s="12" t="s">
+      <c r="O61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P61" s="12" t="s">
+      <c r="P61" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Q61" s="12" t="s">
+      <c r="Q61" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R61" s="12" t="s">
+      <c r="R61" s="6" t="s">
         <v>43</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3105,7 +3186,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3128,7 +3209,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3150,7 +3231,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3172,7 +3253,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3194,7 +3275,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3216,7 +3297,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3238,7 +3319,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3260,7 +3341,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3282,7 +3363,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3304,7 +3385,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3327,21 +3408,64 @@
       <c r="T72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+  <mergeCells count="83">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="K59:L59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="G43:I43"/>
@@ -3354,77 +3478,35 @@
     <mergeCell ref="F60:H60"/>
     <mergeCell ref="F61:H61"/>
     <mergeCell ref="F57:H57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I8"/>
-    <hyperlink r:id="rId2" ref="H9"/>
-    <hyperlink r:id="rId3" ref="I9"/>
-    <hyperlink r:id="rId4" ref="I10"/>
-    <hyperlink r:id="rId5" ref="H11"/>
-    <hyperlink r:id="rId6" ref="I11"/>
-    <hyperlink r:id="rId7" ref="K22"/>
-    <hyperlink r:id="rId8" ref="K24"/>
-    <hyperlink r:id="rId9" ref="J32"/>
-    <hyperlink r:id="rId10" ref="M32"/>
-    <hyperlink r:id="rId11" ref="J34"/>
-    <hyperlink r:id="rId12" ref="M34"/>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J32" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J34" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>